--- a/Webscraping with BeautifulSoup/Dashboard.xlsx
+++ b/Webscraping with BeautifulSoup/Dashboard.xlsx
@@ -1,120 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB306E7-8892-49E7-A37B-D77BD262946A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FF08C-7895-47AF-8EC0-756F483D053A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="9735" windowWidth="21600" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
+    <t>*Setup marco to run every 5min at first for testing* (Show how to change to 30second interval *when in production*)</t>
+  </si>
+  <si>
+    <t>Build a Macro button that sends "Dashboard" bitmap to email. And copies data to 'Alert Tracking. First next avaliable row.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Send Alert</t>
+  </si>
+  <si>
+    <t>*Data highlighted scrapes from Marketwatch or Yahoo Finance*</t>
+  </si>
+  <si>
     <t>Alerted Stock</t>
   </si>
   <si>
+    <t>&lt;--- Build a area like this. *I will build formulas on</t>
+  </si>
+  <si>
+    <t>Build a area where a that populates all the information of stock showing in C3.</t>
+  </si>
+  <si>
+    <t>where this data comes from after you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are finished. </t>
+  </si>
+  <si>
+    <t>*= C3 &amp; "Company Name"*</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Current Volume</t>
+  </si>
+  <si>
+    <t>Symbol - Name</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Average Volume</t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
-    <t>&lt;--- Build a area like this. *I will build formulas on</t>
-  </si>
-  <si>
-    <t>where this data comes from after you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are finished. </t>
-  </si>
-  <si>
-    <t>Build a area where a that populates all the information of stock showing in C3.</t>
-  </si>
-  <si>
-    <t>Symbol - Name</t>
-  </si>
-  <si>
-    <t>Current Volume</t>
-  </si>
-  <si>
-    <t>Average Volume</t>
+    <t>Prev close</t>
+  </si>
+  <si>
+    <t>Day low / High</t>
   </si>
   <si>
     <t>Current Price (day change %)</t>
   </si>
   <si>
-    <t>Market Cap</t>
-  </si>
-  <si>
     <t>52 week range</t>
   </si>
   <si>
-    <t>Prev close</t>
-  </si>
-  <si>
-    <t>Day low / High</t>
-  </si>
-  <si>
     <t>Company Description</t>
   </si>
   <si>
     <t># of Employees</t>
   </si>
   <si>
-    <t>*Data highlighted scrapes from Marketwatch or Yahoo Finance*</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>*= C3 &amp; "Company Name"*</t>
-  </si>
-  <si>
-    <t>Send Alert</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Build a Macro button that sends "Dashboard" bitmap to email. And copies data to 'Alert Tracking. First next avaliable row.</t>
-  </si>
-  <si>
-    <t>*Setup marco to run every 5min at first for testing* (Show how to change to 30second interval *when in production*)</t>
+    <t>Grid with DOW , S&amp;P 500, NASDAQ, Global Dow, Oil and percetages and day change*</t>
   </si>
   <si>
     <t xml:space="preserve"> *Bottom row shows DOW , S&amp;P 500, NASDAQ, Global Dow, Oil and percetages and day change*</t>
   </si>
   <si>
-    <t>Grid with DOW , S&amp;P 500, NASDAQ, Global Dow, Oil and percetages and day change*</t>
-  </si>
-  <si>
     <t>MAILTO</t>
   </si>
   <si>
     <t>APP-PW</t>
   </si>
   <si>
+    <t>markuspolzer73@gmail.com</t>
+  </si>
+  <si>
     <t>rvknapzlbzttxbtw</t>
   </si>
   <si>
-    <t>markuspolzer73@gmail.com</t>
-  </si>
-  <si>
-    <t>MSFT</t>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
@@ -216,11 +211,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -523,7 +519,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,23 +534,23 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -562,82 +558,82 @@
     </row>
     <row r="3" spans="1:13" ht="17.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -650,10 +646,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -661,9 +657,10 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{A76409F6-222E-43E8-84AD-E54F2941B7AC}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Webscraping with BeautifulSoup/Dashboard.xlsx
+++ b/Webscraping with BeautifulSoup/Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FF08C-7895-47AF-8EC0-756F483D053A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9E9B8-36AD-4A96-8C07-7F90F328FA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="9735" windowWidth="21600" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48270" yWindow="6795" windowWidth="8325" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>*Setup marco to run every 5min at first for testing* (Show how to change to 30second interval *when in production*)</t>
   </si>
@@ -109,14 +109,35 @@
     <t>rvknapzlbzttxbtw</t>
   </si>
   <si>
-    <t>IBM</t>
+    <t>mrinvestorpro</t>
+  </si>
+  <si>
+    <t>🚨</t>
+  </si>
+  <si>
+    <t>EMOJI</t>
+  </si>
+  <si>
+    <t>STOCKTWITS ACCOUNT</t>
+  </si>
+  <si>
+    <t>SCROLLDOWN TIMES</t>
+  </si>
+  <si>
+    <t>UPDATE ALERTS (sec)</t>
+  </si>
+  <si>
+    <t>UPDATE STOCKTWITS (min)</t>
+  </si>
+  <si>
+    <t>FB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +174,13 @@
       <color rgb="FF008080"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -215,7 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -516,14 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
@@ -562,7 +595,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -576,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>9</v>
       </c>
@@ -596,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
@@ -607,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
@@ -615,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
@@ -626,16 +659,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
@@ -650,6 +685,48 @@
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -661,6 +738,6 @@
     <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Webscraping with BeautifulSoup/Dashboard.xlsx
+++ b/Webscraping with BeautifulSoup/Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9E9B8-36AD-4A96-8C07-7F90F328FA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B1994-F812-4D5E-88B0-9E501C3B0E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48270" yWindow="6795" windowWidth="8325" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>*Setup marco to run every 5min at first for testing* (Show how to change to 30second interval *when in production*)</t>
   </si>
@@ -128,16 +128,13 @@
   </si>
   <si>
     <t>UPDATE STOCKTWITS (min)</t>
-  </si>
-  <si>
-    <t>FB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +178,13 @@
       <color rgb="FF008080"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -243,7 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,13 +261,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -549,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +598,11 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="17.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -683,11 +689,11 @@
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -695,25 +701,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -721,12 +737,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Webscraping with BeautifulSoup/Dashboard.xlsx
+++ b/Webscraping with BeautifulSoup/Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B1994-F812-4D5E-88B0-9E501C3B0E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBCAE6F-AB3A-4616-B885-F7CC8464D09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35475" yWindow="4170" windowWidth="18810" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
